--- a/数据整理/stocks/A股/上证主板/600338-西藏珠峰.xlsx
+++ b/数据整理/stocks/A股/上证主板/600338-西藏珠峰.xlsx
@@ -1,108 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q2" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>519613</t>
-  </si>
-  <si>
-    <t>519615</t>
-  </si>
-  <si>
-    <t>519614</t>
-  </si>
-  <si>
-    <t>银河君尚灵活配置混合A</t>
-  </si>
-  <si>
-    <t>银河君尚灵活配置混合I</t>
-  </si>
-  <si>
-    <t>银河君尚灵活配置混合C</t>
-  </si>
-  <si>
-    <t>7.44</t>
-  </si>
-  <si>
-    <t>0.41</t>
-  </si>
-  <si>
-    <t>25.96</t>
-  </si>
-  <si>
-    <t>0.49</t>
-  </si>
-  <si>
-    <t>0.0365</t>
-  </si>
-  <si>
-    <t>0.0020</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -125,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -427,115 +446,1139 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519615</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519614</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011236</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0276</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>69.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7713</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011046</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6285</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>370024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5152</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>377530</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4388</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>69.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3097</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>100016</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2458</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>30.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2223</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>373010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>69.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2147</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011237</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2056</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1617</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011196</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上投摩根优势成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>55.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1055</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>97.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>960006</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合H</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011351</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011047</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.86</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>30.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009855</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011197</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上投摩根优势成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>55.58</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011352</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009856</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>960005</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>69.77</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600338-西藏珠峰.xlsx
+++ b/数据整理/stocks/A股/上证主板/600338-西藏珠峰.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1581,4 +1582,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600338-西藏珠峰.xlsx
+++ b/数据整理/stocks/A股/上证主板/600338-西藏珠峰.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1590,7 +1591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1601,17 +1602,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1621,14 +1642,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.32</v>
+          <t>010610</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根远见两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>70.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9125</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1637,13 +1680,1029 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7229</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011236</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2009</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>375010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根中国优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1408</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011046</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7241</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>370024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6437</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008085</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5490</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>377530</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5265</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>31.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2688</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011237</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2597</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2282</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>373010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>67.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2117</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2068</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>379010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上投摩根中小盘混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1800</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011196</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上投摩根优势成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1632</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>960006</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合H</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005593</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>上投摩根创新商业模式灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008084</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.07</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011047</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>31.41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005459</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>35.78</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011197</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>上投摩根优势成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005460</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>35.78</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>960005</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>67.81</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014641</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600338-西藏珠峰.xlsx
+++ b/数据整理/stocks/A股/上证主板/600338-西藏珠峰.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2633,7 +2634,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2644,17 +2645,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2664,14 +2685,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.35</v>
+          <t>010610</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根远见两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0480</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2680,14 +2723,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.32</v>
+          <t>375010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根中国优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7111</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2696,13 +2761,591 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>011046</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>71.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3771</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>70.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2898</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>30.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1337</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013678</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>27.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1272</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>70.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>64.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005593</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根创新商业模式灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013679</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>27.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005459</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>39.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011047</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>71.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004557</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>64.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>30.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005460</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>39.69</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600338-西藏珠峰.xlsx
+++ b/数据整理/stocks/A股/上证主板/600338-西藏珠峰.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3260,7 +3261,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3271,17 +3272,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3291,14 +3312,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.11</v>
+          <t>001704</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银进宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1482</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -3307,14 +3350,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.35</v>
+          <t>012148</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3333</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3323,14 +3388,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.32</v>
+          <t>012149</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7983</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3339,13 +3426,911 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011046</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4108</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3207</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2230</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013678</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1893</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1855</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>35.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1589</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1220</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.03</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005593</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上投摩根创新商业模式灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013679</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>76.36</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>35.08</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011047</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005517</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>62.54</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012808</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005518</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>62.54</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600338-西藏珠峰.xlsx
+++ b/数据整理/stocks/A股/上证主板/600338-西藏珠峰.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,167 +455,113 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519613</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银河君尚灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7.44</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>25.96</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0365</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.52</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519615</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银河君尚灵活配置混合I</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7.44</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>25.96</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0365</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.11</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519614</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>银河君尚灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>25.96</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -646,7 +592,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -676,36 +622,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011236</t>
+          <t>001704</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上投摩根行业睿选股票A</t>
+          <t>国投瑞银进宝灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>36.83</t>
+          <t>46.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.04</t>
+          <t>91.70</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0276</t>
+          <t>2.1482</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -714,36 +660,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009782</t>
+          <t>012148</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国兴泉回报12个月持有期混合A</t>
+          <t>国投瑞银产业趋势混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.87</t>
+          <t>32.05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>69.43</t>
+          <t>94.50</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.80</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7713</t>
+          <t>1.3333</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -752,36 +698,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011046</t>
+          <t>012149</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国优质企业混合A</t>
+          <t>国投瑞银产业趋势混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.17</t>
+          <t>19.19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>80.86</t>
+          <t>94.50</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.18</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6285</t>
+          <t>0.7983</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -790,36 +736,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>370024</t>
+          <t>011046</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上投摩根核心优选混合</t>
+          <t>富国优质企业混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>18.27</t>
+          <t>8.20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.07</t>
+          <t>80.79</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5152</t>
+          <t>0.4108</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -828,36 +774,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>377530</t>
+          <t>008347</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>上投摩根行业轮动混合A</t>
+          <t>中信建投价值甄选混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>15.56</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.38</t>
+          <t>75.03</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>6.64</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.4388</t>
+          <t>0.3207</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -866,32 +812,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009783</t>
+          <t>003822</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国兴泉回报12个月持有期混合C</t>
+          <t>中信建投行业轮换混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>69.43</t>
+          <t>72.45</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9.80</t>
+          <t>6.54</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3097</t>
+          <t>0.2230</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -904,32 +850,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>100016</t>
+          <t>013678</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国天源沪港深平衡混合</t>
+          <t>富国信享回报12个月持有期混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.79</t>
+          <t>9.56</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>65.96</t>
+          <t>27.97</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2458</t>
+          <t>0.1893</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -942,36 +888,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010029</t>
+          <t>009782</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富国稳进回报12个月持有期混合A</t>
+          <t>富国兴泉回报12个月持有期混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>11.06</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>30.28</t>
+          <t>74.87</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2223</t>
+          <t>0.1855</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -980,36 +926,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>373010</t>
+          <t>010029</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>上投摩根双息平衡混合A</t>
+          <t>富国稳进回报12个月持有期混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10.42</t>
+          <t>7.83</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>69.77</t>
+          <t>35.08</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2147</t>
+          <t>0.1589</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1018,36 +964,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011237</t>
+          <t>009783</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>上投摩根行业睿选股票C</t>
+          <t>富国兴泉回报12个月持有期混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7.37</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.04</t>
+          <t>74.87</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2056</t>
+          <t>0.1220</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1066,26 +1012,26 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>84.52</t>
+          <t>84.30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1617</t>
+          <t>0.1062</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1094,36 +1040,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>011196</t>
+          <t>008348</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>上投摩根优势成长混合型证券投资基金A</t>
+          <t>中信建投价值甄选混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>55.58</t>
+          <t>75.03</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>6.64</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1110</t>
+          <t>0.0870</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1132,36 +1078,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009025</t>
+          <t>007468</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>海富通科技创新混合A</t>
+          <t>中信建投策略精选混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>76.36</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>6.68</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1055</t>
+          <t>0.0661</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1170,36 +1116,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>510170</t>
+          <t>005593</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>国联安上证大宗商品股票ETF</t>
+          <t>上投摩根创新商业模式灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>97.26</t>
+          <t>93.52</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0929</t>
+          <t>0.0637</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1208,36 +1154,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>960006</t>
+          <t>013679</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>上投摩根行业轮动混合H</t>
+          <t>富国信享回报12个月持有期混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>89.38</t>
+          <t>27.97</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0632</t>
+          <t>0.0550</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1246,36 +1192,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>011351</t>
+          <t>510170</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>金鹰年年邮益一年持有期混合A</t>
+          <t>国联安上证大宗商品股票ETF</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>7.52</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>20.69</t>
+          <t>97.95</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0526</t>
+          <t>0.0520</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1284,36 +1230,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>011047</t>
+          <t>003823</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>富国优质企业混合C</t>
+          <t>中信建投行业轮换混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>80.86</t>
+          <t>72.45</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>6.18</t>
+          <t>6.54</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0377</t>
+          <t>0.0497</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1322,32 +1268,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>010030</t>
+          <t>160620</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>富国稳进回报12个月持有期混合C</t>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>30.28</t>
+          <t>94.42</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0334</t>
+          <t>0.0497</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1360,36 +1306,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009024</t>
+          <t>007469</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>海富通科技创新混合C</t>
+          <t>中信建投策略精选混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>76.36</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>6.68</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0333</t>
+          <t>0.0281</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1398,36 +1344,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>009855</t>
+          <t>010030</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中加新兴成长混合A</t>
+          <t>富国稳进回报12个月持有期混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>92.70</t>
+          <t>35.08</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0155</t>
+          <t>0.0242</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -1436,36 +1382,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>011197</t>
+          <t>011047</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>上投摩根优势成长混合型证券投资基金C</t>
+          <t>富国优质企业混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>55.58</t>
+          <t>80.79</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0145</t>
+          <t>0.0235</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -1474,36 +1420,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>011352</t>
+          <t>005517</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>金鹰年年邮益一年持有期混合C</t>
+          <t>富国新趋势灵活配置混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>20.69</t>
+          <t>62.54</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0095</t>
+          <t>0.0113</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1512,36 +1458,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>009856</t>
+          <t>012808</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中加新兴成长混合C</t>
+          <t>鹏华中证A股资源产业指数（LOF）C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>92.70</t>
+          <t>94.42</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0055</t>
+          <t>0.0083</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -1550,36 +1496,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>960005</t>
+          <t>005518</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>上投摩根双息平衡混合H</t>
+          <t>富国新趋势灵活配置混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>69.77</t>
+          <t>62.54</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0002</t>
+          <t>0.0019</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1588,6 +1534,632 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010610</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根远见两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0480</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>375010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根中国优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7111</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011046</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>71.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3771</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>70.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2898</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>30.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1337</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013678</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>27.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1272</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>70.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>64.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005593</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根创新商业模式灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013679</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>27.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005459</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>39.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011047</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>71.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004557</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>64.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>30.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005460</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>39.69</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2622,632 +3194,6 @@
       </c>
       <c r="H27" t="n">
         <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010610</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>上投摩根远见两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>56.89</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>88.51</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.0480</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>375010</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>上投摩根中国优势混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>21.68</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.19</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7111</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011046</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国优质企业混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8.18</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>71.23</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3771</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009782</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富国兴泉回报12个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>70.06</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2898</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010029</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富国稳进回报12个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>9.16</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>30.21</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1337</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>013678</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国信享回报12个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>9.49</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>27.59</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1272</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009783</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>富国兴泉回报12个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>70.06</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1149</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005732</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>富国臻选成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>64.81</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0970</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005593</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>上投摩根创新商业模式灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.28</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0587</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>013679</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>富国信享回报12个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>27.59</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0370</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005459</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>银河嘉谊灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>6.47</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>39.69</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0349</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>011047</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>富国优质企业混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>71.23</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0221</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>004557</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>北信瑞丰鼎丰灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>64.13</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0199</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>010030</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>富国稳进回报12个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>30.21</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0188</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005460</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>银河嘉谊灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>39.69</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0151</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3282,7 +3228,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3312,36 +3258,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001704</t>
+          <t>011236</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国投瑞银进宝灵活配置混合</t>
+          <t>上投摩根行业睿选股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>46.00</t>
+          <t>36.83</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.70</t>
+          <t>93.04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.1482</t>
+          <t>1.0276</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3350,36 +3296,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012148</t>
+          <t>009782</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国投瑞银产业趋势混合型证券投资基金A</t>
+          <t>富国兴泉回报12个月持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>32.05</t>
+          <t>7.87</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.50</t>
+          <t>69.43</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>9.80</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.3333</t>
+          <t>0.7713</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -3388,36 +3334,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>012149</t>
+          <t>011046</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国投瑞银产业趋势混合型证券投资基金C</t>
+          <t>富国优质企业混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>19.19</t>
+          <t>10.17</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.50</t>
+          <t>80.86</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>6.18</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7983</t>
+          <t>0.6285</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -3426,36 +3372,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011046</t>
+          <t>370024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国优质企业混合A</t>
+          <t>上投摩根核心优选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.20</t>
+          <t>18.27</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>80.79</t>
+          <t>90.07</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4108</t>
+          <t>0.5152</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -3464,36 +3410,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008347</t>
+          <t>377530</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中信建投价值甄选混合A</t>
+          <t>上投摩根行业轮动混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>15.56</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>75.03</t>
+          <t>89.38</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.64</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3207</t>
+          <t>0.4388</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -3502,32 +3448,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003822</t>
+          <t>009783</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中信建投行业轮换混合A</t>
+          <t>富国兴泉回报12个月持有期混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>72.45</t>
+          <t>69.43</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.54</t>
+          <t>9.80</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2230</t>
+          <t>0.3097</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -3540,32 +3486,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>013678</t>
+          <t>100016</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国信享回报12个月持有期混合A</t>
+          <t>富国天源沪港深平衡混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>9.56</t>
+          <t>6.79</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>27.97</t>
+          <t>65.96</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1893</t>
+          <t>0.2458</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -3578,36 +3524,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009782</t>
+          <t>010029</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富国兴泉回报12个月持有期混合A</t>
+          <t>富国稳进回报12个月持有期混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>11.06</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>74.87</t>
+          <t>30.28</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1855</t>
+          <t>0.2223</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -3616,36 +3562,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010029</t>
+          <t>373010</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>富国稳进回报12个月持有期混合A</t>
+          <t>上投摩根双息平衡混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>10.42</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>35.08</t>
+          <t>69.77</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1589</t>
+          <t>0.2147</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -3654,36 +3600,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009783</t>
+          <t>011237</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>富国兴泉回报12个月持有期混合C</t>
+          <t>上投摩根行业睿选股票C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>74.87</t>
+          <t>93.04</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1220</t>
+          <t>0.2056</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -3702,26 +3648,26 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>84.30</t>
+          <t>84.52</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1062</t>
+          <t>0.1617</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -3730,36 +3676,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>008348</t>
+          <t>011196</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中信建投价值甄选混合C</t>
+          <t>上投摩根优势成长混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>75.03</t>
+          <t>55.58</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>6.64</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0870</t>
+          <t>0.1110</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -3768,36 +3714,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>007468</t>
+          <t>009025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中信建投策略精选混合A</t>
+          <t>海富通科技创新混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>76.36</t>
+          <t>94.52</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>6.68</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0661</t>
+          <t>0.1055</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -3806,36 +3752,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005593</t>
+          <t>510170</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>上投摩根创新商业模式灵活配置混合</t>
+          <t>国联安上证大宗商品股票ETF</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>93.52</t>
+          <t>97.26</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0637</t>
+          <t>0.0929</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -3844,36 +3790,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>013679</t>
+          <t>960006</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>富国信享回报12个月持有期混合C</t>
+          <t>上投摩根行业轮动混合H</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>27.97</t>
+          <t>89.38</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0550</t>
+          <t>0.0632</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -3882,36 +3828,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>510170</t>
+          <t>011351</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>国联安上证大宗商品股票ETF</t>
+          <t>金鹰年年邮益一年持有期混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>7.52</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>97.95</t>
+          <t>20.69</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0520</t>
+          <t>0.0526</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -3920,36 +3866,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>003823</t>
+          <t>011047</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中信建投行业轮换混合C</t>
+          <t>富国优质企业混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>72.45</t>
+          <t>80.86</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>6.54</t>
+          <t>6.18</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0497</t>
+          <t>0.0377</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -3958,32 +3904,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>160620</t>
+          <t>010030</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>鹏华中证A股资源产业指数（LOF）</t>
+          <t>富国稳进回报12个月持有期混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>94.42</t>
+          <t>30.28</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0497</t>
+          <t>0.0334</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -3996,36 +3942,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>007469</t>
+          <t>009024</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中信建投策略精选混合C</t>
+          <t>海富通科技创新混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>76.36</t>
+          <t>94.52</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>6.68</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0281</t>
+          <t>0.0333</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -4034,36 +3980,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>010030</t>
+          <t>009855</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>富国稳进回报12个月持有期混合C</t>
+          <t>中加新兴成长混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>35.08</t>
+          <t>92.70</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0242</t>
+          <t>0.0155</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -4072,36 +4018,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>011047</t>
+          <t>011197</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>富国优质企业混合C</t>
+          <t>上投摩根优势成长混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>80.79</t>
+          <t>55.58</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0235</t>
+          <t>0.0145</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -4110,36 +4056,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>005517</t>
+          <t>011352</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>富国新趋势灵活配置混合A</t>
+          <t>金鹰年年邮益一年持有期混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>62.54</t>
+          <t>20.69</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0113</t>
+          <t>0.0095</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -4148,36 +4094,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>012808</t>
+          <t>009856</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>鹏华中证A股资源产业指数（LOF）C</t>
+          <t>中加新兴成长混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>94.42</t>
+          <t>92.70</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0083</t>
+          <t>0.0055</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -4186,36 +4132,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>005518</t>
+          <t>960005</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>富国新趋势灵活配置混合C</t>
+          <t>上投摩根双息平衡混合H</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>62.54</t>
+          <t>69.77</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0019</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -4229,112 +4175,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.52</v>
+          <t>519613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.11</v>
+          <t>519615</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>26</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.35</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>24</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.32</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.08</v>
+          <t>519614</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600338-西藏珠峰.xlsx
+++ b/数据整理/stocks/A股/上证主板/600338-西藏珠峰.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>6.52</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>4.11</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>11.35</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
-        <v>5.32</v>
+        <v>11.35</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -566,6 +583,1238 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>970010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4692</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014016</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信建投品质优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2940</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011046</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>67.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2464</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2345</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1990</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014488</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银产业升级两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>379010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根中小盘混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>44.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014017</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投品质优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>52.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>44.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010925</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005593</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上投摩根创新商业模式灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001339</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴银鼎新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011147</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011146</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010124</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010125</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011047</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>67.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001572</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015148</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014489</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国投瑞银产业升级两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010926</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>015149</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华安中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001571</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>970009</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>016418</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>上投摩根创新商业模式灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1533,7 +2782,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2159,7 +3408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3201,7 +4450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4169,7 +5418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600338-西藏珠峰.xlsx
+++ b/数据整理/stocks/A股/上证主板/600338-西藏珠峰.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>2.54</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D3" t="n">
-        <v>6.52</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>4.11</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>11.35</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="n">
-        <v>5.32</v>
+        <v>11.35</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>24</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -583,6 +600,1164 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0211</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007689</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8030</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007690</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4823</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012148</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2429</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012149</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7579</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014016</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投品质优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3446</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011046</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3267</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>63.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2898</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>56.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2535</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012577</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国诚益回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2310</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>56.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1578</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1539</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012576</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国诚益回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1498</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013678</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>25.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1253</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>63.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1216</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>74.76</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014017</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中信建投品质优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>76.97</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0958</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>76.07</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013679</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>25.56</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>70.09</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>97.56</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>70.09</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011047</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001572</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>37.90</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001571</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>37.90</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011987</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>38.44</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011988</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>38.44</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1814,7 +2989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2782,7 +3957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3408,7 +4583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4450,7 +5625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5418,7 +6593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
